--- a/capa_op_dataframe.xlsx
+++ b/capa_op_dataframe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/jinhongm_umich_edu/Documents/2024/Intern @ Glimpse data/Xray beam damage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pattia/Documents/GitHub/X-ray-influence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{CA029B9B-0B21-8C4F-9861-497CB31459B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3386C8-B7A0-6D44-868E-A07D83E5F3ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB92CC-DAB3-D84F-9574-92784F7B0971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{BCC4ECDA-032A-054E-A417-6A4BBCEC330F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="15">
   <si>
     <t>order</t>
   </si>
@@ -81,6 +81,9 @@
   <si>
     <t>3rd</t>
   </si>
+  <si>
+    <t>1 hour</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +116,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +189,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB58991-64CC-4542-A449-38F0692A14EF}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,8 +976,8 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
+      <c r="C32" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="2">
         <v>3.1606000000000001</v>
@@ -980,8 +990,8 @@
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>3.1608000000000001</v>
@@ -994,8 +1004,8 @@
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>12</v>
+      <c r="C34" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="2">
         <v>3.1637</v>
@@ -1008,8 +1018,8 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
+      <c r="C35" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>3.1385999999999998</v>
@@ -1022,8 +1032,8 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
+      <c r="C36" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <v>3.1736</v>
@@ -1036,8 +1046,8 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
+      <c r="C37" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="2">
         <v>3.0375999999999999</v>
@@ -1050,8 +1060,8 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
+      <c r="C38" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D38" s="2">
         <v>3.0387</v>
@@ -1064,8 +1074,8 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
+      <c r="C39" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D39" s="2">
         <v>3.0419999999999998</v>
@@ -1078,8 +1088,8 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
+      <c r="C40" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D40" s="2">
         <v>3.0234000000000001</v>
@@ -1092,8 +1102,8 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
+      <c r="C41" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="2">
         <v>3.0596000000000001</v>
@@ -1106,8 +1116,8 @@
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" t="s">
-        <v>12</v>
+      <c r="C42" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="2">
         <v>2.8090999999999999</v>
@@ -1120,8 +1130,8 @@
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
+      <c r="C43" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="2">
         <v>2.8037000000000001</v>
@@ -1134,8 +1144,8 @@
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
+      <c r="C44" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D44" s="2">
         <v>2.7913000000000001</v>
@@ -1148,8 +1158,8 @@
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
+      <c r="C45" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="2">
         <v>2.8144999999999998</v>
@@ -1162,8 +1172,8 @@
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
-        <v>12</v>
+      <c r="C46" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="2">
         <v>2.8382000000000001</v>
@@ -1596,8 +1606,8 @@
       <c r="B77" t="s">
         <v>5</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
+      <c r="C77" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D77" s="4">
         <v>3.0739999999999998</v>
@@ -1610,8 +1620,8 @@
       <c r="B78" t="s">
         <v>5</v>
       </c>
-      <c r="C78" t="s">
-        <v>12</v>
+      <c r="C78" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="4">
         <v>3.0756999999999999</v>
@@ -1624,8 +1634,8 @@
       <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="C79" t="s">
-        <v>12</v>
+      <c r="C79" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D79" s="4">
         <v>3.0933000000000002</v>
@@ -1638,8 +1648,8 @@
       <c r="B80" t="s">
         <v>5</v>
       </c>
-      <c r="C80" t="s">
-        <v>12</v>
+      <c r="C80" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D80" s="4">
         <v>3.1036000000000001</v>
@@ -1652,8 +1662,8 @@
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
-        <v>12</v>
+      <c r="C81" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D81" s="4">
         <v>3.0971000000000002</v>
@@ -1666,8 +1676,8 @@
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82" t="s">
-        <v>12</v>
+      <c r="C82" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="4">
         <v>2.9758</v>
@@ -1680,8 +1690,8 @@
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" t="s">
-        <v>12</v>
+      <c r="C83" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D83" s="4">
         <v>2.9798</v>
@@ -1694,8 +1704,8 @@
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
-        <v>12</v>
+      <c r="C84" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D84" s="4">
         <v>2.9893999999999998</v>
@@ -1708,8 +1718,8 @@
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
-        <v>12</v>
+      <c r="C85" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D85" s="4">
         <v>2.9922</v>
@@ -1722,8 +1732,8 @@
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" t="s">
-        <v>12</v>
+      <c r="C86" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D86" s="4">
         <v>2.9882</v>
@@ -1736,8 +1746,8 @@
       <c r="B87" t="s">
         <v>7</v>
       </c>
-      <c r="C87" t="s">
-        <v>12</v>
+      <c r="C87" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D87" s="4">
         <v>2.7542</v>
@@ -1750,8 +1760,8 @@
       <c r="B88" t="s">
         <v>7</v>
       </c>
-      <c r="C88" t="s">
-        <v>12</v>
+      <c r="C88" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D88" s="4">
         <v>2.7587000000000002</v>
@@ -1764,8 +1774,8 @@
       <c r="B89" t="s">
         <v>7</v>
       </c>
-      <c r="C89" t="s">
-        <v>12</v>
+      <c r="C89" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D89" s="4">
         <v>2.7563</v>
@@ -1778,8 +1788,8 @@
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" t="s">
-        <v>12</v>
+      <c r="C90" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D90" s="4">
         <v>2.7669000000000001</v>
@@ -1792,8 +1802,8 @@
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
+      <c r="C91" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D91" s="4">
         <v>2.7616000000000001</v>
@@ -2229,8 +2239,8 @@
       <c r="B122" t="s">
         <v>5</v>
       </c>
-      <c r="C122" t="s">
-        <v>12</v>
+      <c r="C122" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D122">
         <v>2.6292</v>
@@ -2243,8 +2253,8 @@
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123" t="s">
-        <v>12</v>
+      <c r="C123" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D123">
         <v>2.6341000000000001</v>
@@ -2258,8 +2268,8 @@
       <c r="B124" t="s">
         <v>5</v>
       </c>
-      <c r="C124" t="s">
-        <v>12</v>
+      <c r="C124" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D124">
         <v>2.6339999999999999</v>
@@ -2273,8 +2283,8 @@
       <c r="B125" t="s">
         <v>5</v>
       </c>
-      <c r="C125" t="s">
-        <v>12</v>
+      <c r="C125" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D125">
         <v>2.6383000000000001</v>
@@ -2287,8 +2297,8 @@
       <c r="B126" t="s">
         <v>5</v>
       </c>
-      <c r="C126" t="s">
-        <v>12</v>
+      <c r="C126" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D126">
         <v>2.6478999999999999</v>
@@ -2301,8 +2311,8 @@
       <c r="B127" t="s">
         <v>6</v>
       </c>
-      <c r="C127" t="s">
-        <v>12</v>
+      <c r="C127" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D127">
         <v>2.5409999999999999</v>
@@ -2315,8 +2325,8 @@
       <c r="B128" t="s">
         <v>6</v>
       </c>
-      <c r="C128" t="s">
-        <v>12</v>
+      <c r="C128" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D128">
         <v>2.5472999999999999</v>
@@ -2330,8 +2340,8 @@
       <c r="B129" t="s">
         <v>6</v>
       </c>
-      <c r="C129" t="s">
-        <v>12</v>
+      <c r="C129" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D129">
         <v>2.5350000000000001</v>
@@ -2344,8 +2354,8 @@
       <c r="B130" t="s">
         <v>6</v>
       </c>
-      <c r="C130" t="s">
-        <v>12</v>
+      <c r="C130" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D130">
         <v>2.5375999999999999</v>
@@ -2358,8 +2368,8 @@
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131" t="s">
-        <v>12</v>
+      <c r="C131" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D131">
         <v>2.5484</v>
@@ -2372,8 +2382,8 @@
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" t="s">
-        <v>12</v>
+      <c r="C132" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D132">
         <v>2.3281999999999998</v>
@@ -2386,8 +2396,8 @@
       <c r="B133" t="s">
         <v>7</v>
       </c>
-      <c r="C133" t="s">
-        <v>12</v>
+      <c r="C133" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D133">
         <v>2.3361000000000001</v>
@@ -2400,8 +2410,8 @@
       <c r="B134" t="s">
         <v>7</v>
       </c>
-      <c r="C134" t="s">
-        <v>12</v>
+      <c r="C134" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D134">
         <v>2.3065000000000002</v>
@@ -2414,8 +2424,8 @@
       <c r="B135" t="s">
         <v>7</v>
       </c>
-      <c r="C135" t="s">
-        <v>12</v>
+      <c r="C135" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D135">
         <v>2.3298999999999999</v>
@@ -2428,8 +2438,8 @@
       <c r="B136" t="s">
         <v>7</v>
       </c>
-      <c r="C136" t="s">
-        <v>12</v>
+      <c r="C136" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D136">
         <v>2.3296000000000001</v>
